--- a/50Missions.xlsx
+++ b/50Missions.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magneton\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="11475" windowHeight="7230" firstSheet="8" activeTab="10"/>
   </bookViews>
@@ -432,12 +437,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -476,6 +481,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -524,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,9 +564,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,6 +599,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -765,28 +775,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT46"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection sqref="A1:AT46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -926,7 +936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1206,7 +1216,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1346,7 +1356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1486,7 +1496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1626,7 +1636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1766,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -1906,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>36</v>
       </c>
@@ -2046,7 +2056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>33</v>
       </c>
@@ -2186,7 +2196,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>25</v>
       </c>
@@ -2326,7 +2336,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15</v>
       </c>
@@ -2466,7 +2476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31</v>
       </c>
@@ -2606,7 +2616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -2886,7 +2896,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>33</v>
       </c>
@@ -3026,7 +3036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19</v>
       </c>
@@ -3166,7 +3176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31</v>
       </c>
@@ -3306,7 +3316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>29</v>
       </c>
@@ -3446,7 +3456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>23</v>
       </c>
@@ -3586,7 +3596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24</v>
       </c>
@@ -3726,7 +3736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -3866,7 +3876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:46">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>33</v>
       </c>
@@ -4006,7 +4016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -4146,7 +4156,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -4286,7 +4296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -4426,7 +4436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18</v>
       </c>
@@ -4566,7 +4576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>31</v>
       </c>
@@ -4706,7 +4716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:46">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>33</v>
       </c>
@@ -4846,7 +4856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4986,7 +4996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>33</v>
       </c>
@@ -5126,7 +5136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19</v>
       </c>
@@ -5266,7 +5276,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24</v>
       </c>
@@ -5406,7 +5416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:46">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>21</v>
       </c>
@@ -5546,7 +5556,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:46">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -5686,7 +5696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:46">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>50</v>
       </c>
@@ -5826,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>54</v>
       </c>
@@ -5966,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:46">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
@@ -6106,7 +6116,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:46">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>23</v>
       </c>
@@ -6246,7 +6256,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:46">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>24</v>
       </c>
@@ -6386,7 +6396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:46">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>18</v>
       </c>
@@ -6526,7 +6536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:46">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -6666,7 +6676,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:46">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>33</v>
       </c>
@@ -6806,7 +6816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:46">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>52</v>
       </c>
@@ -6946,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:46">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>33</v>
       </c>
@@ -7086,7 +7096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:46">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>52</v>
       </c>
@@ -7232,16 +7242,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E54"/>
+      <selection activeCell="A3" sqref="A3:E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -7258,7 +7268,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7275,15 +7285,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -7292,160 +7302,160 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>16.229166666666668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>2</v>
-      </c>
       <c r="B6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
+        <v>16.229166666666668</v>
+      </c>
+      <c r="E6">
+        <v>17.229166666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>5.25</v>
-      </c>
-      <c r="E7">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>6.25</v>
-      </c>
-      <c r="E8">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="E9">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="E10">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>6.8125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>8.75</v>
+        <v>6.8125</v>
       </c>
       <c r="E11">
-        <v>8.8541666666666661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>7.8125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>8.8541666666666661</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>9.8541666666666661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -7456,132 +7466,132 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.8541666666666661</v>
+        <v>8.25</v>
       </c>
       <c r="E13">
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="E14">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>11.75</v>
+        <v>9.75</v>
       </c>
       <c r="E15">
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>12.75</v>
+        <v>11.25</v>
       </c>
       <c r="E16">
-        <v>12.888888888888889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>12.888888888888889</v>
+        <v>12.25</v>
       </c>
       <c r="E17">
-        <v>13.888888888888889</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>12.368055555555555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>5.75</v>
+        <v>12.368055555555555</v>
       </c>
       <c r="E18">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>13.368055555555555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>6.75</v>
+        <v>12.25</v>
       </c>
       <c r="E19">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>8.25</v>
+        <v>5.25</v>
       </c>
       <c r="E20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -7592,30 +7602,30 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>6.25</v>
       </c>
       <c r="E21">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>11.25</v>
+        <v>8.25</v>
       </c>
       <c r="E22">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -7626,200 +7636,200 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.25</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>11.25</v>
+      </c>
+      <c r="E24">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>12.25</v>
+      </c>
+      <c r="E25">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>12.75</v>
-      </c>
-      <c r="E24">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="D26">
+        <v>12.5</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
         <v>13</v>
       </c>
-      <c r="B25">
-        <v>36</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
+      <c r="E27">
         <v>14</v>
       </c>
-      <c r="E25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>13.25</v>
-      </c>
-      <c r="E26">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>14.25</v>
-      </c>
-      <c r="E27">
-        <v>14.368055555555555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>33</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>14.368055555555555</v>
+        <v>14</v>
       </c>
       <c r="E28">
-        <v>15.368055555555555</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>15.368055555555555</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>15.479166666666666</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>15.479166666666666</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>16.479166666666664</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>16.479166666666664</v>
+        <v>10.25</v>
       </c>
       <c r="E31">
-        <v>16.541666666666664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
       <c r="B32">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>16.541666666666664</v>
+        <v>11.75</v>
       </c>
       <c r="E32">
-        <v>17.541666666666664</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>11.895833333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>17.541666666666664</v>
+        <v>11.895833333333334</v>
       </c>
       <c r="E33">
-        <v>17.618055555555554</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>12.895833333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
       <c r="B34">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34">
-        <v>17.618055555555554</v>
+        <v>12.75</v>
       </c>
       <c r="E34">
-        <v>18.618055555555554</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -7830,304 +7840,304 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>18.618055555555554</v>
+        <v>13.75</v>
       </c>
       <c r="E35">
-        <v>18.958333333333332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
       <c r="B36">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>5</v>
       </c>
-      <c r="D36">
-        <v>18.958333333333332</v>
-      </c>
-      <c r="E36">
-        <v>20.458333333333332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
         <v>6</v>
       </c>
-      <c r="B37">
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>16.173611111111111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
         <v>30</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>5</v>
       </c>
-      <c r="D37">
+      <c r="D39">
+        <v>16.173611111111111</v>
+      </c>
+      <c r="E39">
+        <v>17.173611111111111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>17.173611111111111</v>
+      </c>
+      <c r="E40">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>17.5</v>
+      </c>
+      <c r="E41">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>18.5</v>
+      </c>
+      <c r="E42">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>19.75</v>
+      </c>
+      <c r="E43">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>13.25</v>
+      </c>
+      <c r="E44">
         <v>14.25</v>
       </c>
-      <c r="E37">
-        <v>15.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>7</v>
-      </c>
-      <c r="B38">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>14.25</v>
+      </c>
+      <c r="E45">
+        <v>14.381944444444445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
         <v>29</v>
       </c>
-      <c r="C38">
+      <c r="C46">
         <v>5</v>
       </c>
-      <c r="D38">
-        <v>15.25</v>
-      </c>
-      <c r="E38">
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>16.25</v>
-      </c>
-      <c r="E39">
-        <v>16.479166666666668</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>7</v>
-      </c>
-      <c r="B40">
+      <c r="D46">
+        <v>14.381944444444445</v>
+      </c>
+      <c r="E46">
+        <v>15.381944444444445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>15.381944444444445</v>
+      </c>
+      <c r="E47">
+        <v>15.402777777777779</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>15.402777777777779</v>
+      </c>
+      <c r="E48">
+        <v>16.902777777777779</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>16.902777777777779</v>
+      </c>
+      <c r="E49">
+        <v>17.131944444444446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
         <v>42</v>
       </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>16.479166666666668</v>
-      </c>
-      <c r="E40">
-        <v>17.479166666666668</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>7</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>17.479166666666668</v>
-      </c>
-      <c r="E41">
-        <v>17.645833333333336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>7</v>
-      </c>
-      <c r="B42">
-        <v>21</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>17.645833333333336</v>
-      </c>
-      <c r="E42">
-        <v>18.645833333333336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>7</v>
-      </c>
-      <c r="B43">
-        <v>34</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>18.645833333333336</v>
-      </c>
-      <c r="E43">
-        <v>19.645833333333336</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>7</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>19.645833333333336</v>
-      </c>
-      <c r="E44">
-        <v>19.972222222222225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>46</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>19.972222222222225</v>
-      </c>
-      <c r="E45">
-        <v>20.972222222222225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
-        <v>7</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>20.972222222222225</v>
-      </c>
-      <c r="E46">
-        <v>21.215277777777782</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
-        <v>7</v>
-      </c>
-      <c r="B47">
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>17.131944444444446</v>
+      </c>
+      <c r="E50">
+        <v>18.131944444444446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>18.131944444444446</v>
+      </c>
+      <c r="E51">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
         <v>41</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47">
-        <v>21.215277777777782</v>
-      </c>
-      <c r="E47">
-        <v>22.715277777777782</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>22.715277777777782</v>
-      </c>
-      <c r="E48">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49">
-        <v>7</v>
-      </c>
-      <c r="B49">
-        <v>35</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>23.5</v>
-      </c>
-      <c r="E49">
-        <v>25.25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50">
-        <v>8</v>
-      </c>
-      <c r="B50">
-        <v>44</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-      <c r="D50">
-        <v>18.5</v>
-      </c>
-      <c r="E50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>20</v>
-      </c>
-      <c r="E51">
-        <v>20.243055555555557</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52">
-        <v>8</v>
-      </c>
-      <c r="B52">
-        <v>22</v>
       </c>
       <c r="C52">
         <v>5</v>
       </c>
       <c r="D52">
-        <v>20.243055555555557</v>
+        <v>19.75</v>
       </c>
       <c r="E52">
-        <v>21.993055555555557</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8136,15 +8146,15 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>21.993055555555557</v>
+        <v>21.25</v>
       </c>
       <c r="E53">
-        <v>22.118055555555557</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>21.375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -8153,10 +8163,333 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>22.118055555555557</v>
+        <v>21.375</v>
       </c>
       <c r="E54">
-        <v>30.118055555555557</v>
+        <v>29.375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>14.25</v>
+      </c>
+      <c r="E55">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>19.5</v>
+      </c>
+      <c r="E59">
+        <v>19.763888888888889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>22</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>19.763888888888889</v>
+      </c>
+      <c r="E60">
+        <v>21.513888888888889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>39</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>15.25</v>
+      </c>
+      <c r="E61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>17.048611111111111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>17.048611111111111</v>
+      </c>
+      <c r="E63">
+        <v>18.048611111111111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>18.048611111111111</v>
+      </c>
+      <c r="E64">
+        <v>18.125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>45</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>18.125</v>
+      </c>
+      <c r="E65">
+        <v>19.625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>19.625</v>
+      </c>
+      <c r="E66">
+        <v>19.895833333333332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>44</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>19.895833333333332</v>
+      </c>
+      <c r="E67">
+        <v>21.395833333333332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>34</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>18.25</v>
+      </c>
+      <c r="E68">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>18.25</v>
+      </c>
+      <c r="E69">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>19.25</v>
+      </c>
+      <c r="E70">
+        <v>19.416666666666668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>19.416666666666668</v>
+      </c>
+      <c r="E71">
+        <v>27.416666666666668</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>35</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>23.5</v>
+      </c>
+      <c r="E72">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>18.25</v>
+      </c>
+      <c r="E73">
+        <v>26.25</v>
       </c>
     </row>
   </sheetData>
@@ -8165,45 +8498,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -8211,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -8219,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -8236,7 +8569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -8253,7 +8586,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -8261,7 +8594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -8269,7 +8602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -8277,7 +8610,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -8285,7 +8618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -8293,7 +8626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -8301,7 +8634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -8309,12 +8642,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="42.75">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -8349,7 +8682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -8384,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -8419,7 +8752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -8454,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -8489,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -8524,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -8559,12 +8892,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>6</v>
       </c>
@@ -8584,7 +8917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -8607,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -8630,7 +8963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -8653,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -8676,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -8699,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -8728,16 +9061,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="42.75">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -8796,7 +9129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -8855,7 +9188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8905,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8955,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9005,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9055,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9105,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9155,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9205,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9255,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9305,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9361,16 +9694,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="57">
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -9399,7 +9732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -9428,7 +9761,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -9457,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -9486,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -9515,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -9544,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -9573,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -9602,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -9631,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -9660,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -9689,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -9718,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -9747,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -9776,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -9805,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -9834,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -9863,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -9898,16 +10231,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="42.75">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -9966,7 +10299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -10025,7 +10358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10084,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10143,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10202,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10261,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10320,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10379,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10438,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10497,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10556,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10621,16 +10954,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:W48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="57">
+    <row r="1" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -10701,7 +11034,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -10772,7 +11105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10843,7 +11176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10914,7 +11247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10985,7 +11318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11056,7 +11389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11127,7 +11460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11198,7 +11531,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11269,7 +11602,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -11340,7 +11673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11411,7 +11744,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11482,7 +11815,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11553,7 +11886,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11624,7 +11957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11695,7 +12028,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11766,7 +12099,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11837,7 +12170,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -11908,7 +12241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -11979,7 +12312,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -12050,7 +12383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -12121,7 +12454,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -12192,7 +12525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -12263,7 +12596,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -12334,7 +12667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -12405,7 +12738,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -12476,7 +12809,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -12547,7 +12880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -12618,7 +12951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -12689,7 +13022,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -12760,7 +13093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -12831,7 +13164,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -12902,7 +13235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -12973,7 +13306,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -13044,7 +13377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -13115,7 +13448,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -13186,7 +13519,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -13257,7 +13590,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -13328,7 +13661,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -13399,7 +13732,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -13470,7 +13803,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -13541,7 +13874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -13612,7 +13945,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -13683,7 +14016,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -13754,7 +14087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -13825,7 +14158,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -13896,7 +14229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -13967,7 +14300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -14044,16 +14377,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
@@ -14073,7 +14406,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -14093,7 +14426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14113,7 +14446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14133,7 +14466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -14153,7 +14486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -14173,7 +14506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -14193,7 +14526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -14213,7 +14546,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -14233,7 +14566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -14253,7 +14586,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -14273,7 +14606,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14293,7 +14626,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -14313,7 +14646,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -14333,7 +14666,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -14353,7 +14686,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -14373,7 +14706,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14393,7 +14726,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14413,7 +14746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -14433,7 +14766,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -14453,7 +14786,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -14473,7 +14806,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -14493,7 +14826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -14513,7 +14846,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -14533,7 +14866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -14553,7 +14886,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -14573,7 +14906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -14593,7 +14926,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -14613,7 +14946,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -14633,7 +14966,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
@@ -14653,7 +14986,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
@@ -14673,7 +15006,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>23</v>
       </c>
@@ -14693,7 +15026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
@@ -14713,7 +15046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>23</v>
       </c>
@@ -14733,7 +15066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>24</v>
       </c>
@@ -14753,7 +15086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>24</v>
       </c>
@@ -14773,7 +15106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>24</v>
       </c>
@@ -14793,7 +15126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>25</v>
       </c>
@@ -14813,7 +15146,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>32</v>
       </c>
@@ -14833,7 +15166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -14853,7 +15186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>34</v>
       </c>
@@ -14873,7 +15206,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
@@ -14893,7 +15226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>44</v>
       </c>
